--- a/R/r_training/DT_grouped.xlsx
+++ b/R/r_training/DT_grouped.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Montana</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Paseo</t>
